--- a/simple_ml/example/report3/experiments_data.xlsx
+++ b/simple_ml/example/report3/experiments_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\simple_ml\simple_ml\example\report2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\simple_ml\simple_ml\example\report3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC772161-459C-4556-9A62-8A67AF762354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272D6201-8C58-4DE7-B3EE-72DF9EC5F66A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,15 +27,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>C magtitude</t>
-  </si>
-  <si>
-    <t>validatin acc</t>
-  </si>
-  <si>
-    <t>epoch</t>
-  </si>
-  <si>
     <t>LR</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -79,6 +70,44 @@
   </si>
   <si>
     <t>best epoch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>daboost</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>epth</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -148,11 +177,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +490,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -477,119 +506,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>-2</v>
-      </c>
       <c r="C2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.82</v>
+      </c>
+      <c r="C3">
+        <v>0.88</v>
+      </c>
+      <c r="D3">
+        <v>0.87</v>
+      </c>
+      <c r="E3">
+        <v>0.89</v>
+      </c>
+      <c r="F3">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.96</v>
+      </c>
+      <c r="C4">
+        <v>0.91</v>
+      </c>
+      <c r="D4">
+        <v>0.94</v>
+      </c>
+      <c r="E4">
+        <v>0.93</v>
+      </c>
+      <c r="F4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="B7" s="3">
+        <v>0.84660000000000002</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.84440000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>83.39</v>
-      </c>
-      <c r="C3">
-        <v>84.42</v>
-      </c>
-      <c r="D3">
-        <v>84.72</v>
-      </c>
-      <c r="E3">
-        <v>84.75</v>
-      </c>
-      <c r="F3">
-        <v>84.73</v>
-      </c>
-      <c r="G3">
-        <v>84.56</v>
-      </c>
-      <c r="H3">
-        <v>84.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>86</v>
-      </c>
-      <c r="D4">
-        <v>62</v>
-      </c>
-      <c r="E4">
-        <v>138</v>
-      </c>
-      <c r="F4">
-        <v>173</v>
-      </c>
-      <c r="G4">
-        <v>147</v>
-      </c>
-      <c r="H4">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.84660000000000002</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.84440000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="B8">
         <v>0.8498</v>
@@ -599,8 +610,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B9">
         <v>37</v>
